--- a/KW/Windows_H3.xlsx
+++ b/KW/Windows_H3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="H3-1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
   <si>
     <t>Offset</t>
   </si>
@@ -216,6 +216,12 @@
   <si>
     <t>Outlier(off?)</t>
   </si>
+  <si>
+    <t>3~5</t>
+  </si>
+  <si>
+    <t>8.239~10</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -370,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
@@ -5332,8 +5341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:S60"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5532,16 +5541,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="23">
+        <v>2</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
         <v>23</v>
-      </c>
-      <c r="I6" s="24">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23">
-        <v>1</v>
       </c>
       <c r="L6" s="24">
         <v>0</v>
@@ -5559,13 +5568,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>11.44</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>6.0629999999999997</v>
       </c>
       <c r="T6" s="33" t="s">
         <v>55</v>
@@ -5592,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="23">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="I7" s="24">
         <v>1</v>
@@ -5601,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="23">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="L7" s="24">
         <v>0</v>
@@ -5610,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="23">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="O7" s="24">
         <v>1</v>
@@ -5619,13 +5628,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>7.9740000000000002</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>55</v>
@@ -5712,16 +5721,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="23">
+        <v>25</v>
+      </c>
+      <c r="I9" s="24">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
         <v>42</v>
-      </c>
-      <c r="I9" s="24">
-        <v>1</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
-        <v>24</v>
       </c>
       <c r="L9" s="24">
         <v>0</v>
@@ -5739,13 +5748,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="S9" s="2">
-        <v>0</v>
+        <v>6.069</v>
       </c>
       <c r="T9" s="33" t="s">
         <v>55</v>
@@ -5772,16 +5781,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="23">
+        <v>1402</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
         <v>1429</v>
-      </c>
-      <c r="I10" s="24">
-        <v>1</v>
-      </c>
-      <c r="J10" s="25">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
-        <v>1401</v>
       </c>
       <c r="L10" s="24">
         <v>0</v>
@@ -5799,13 +5808,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R10" s="34">
+        <v>11.81</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="T10" s="33" t="s">
         <v>55</v>
@@ -7071,7 +7080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22">
         <v>27</v>
       </c>
@@ -7128,7 +7137,7 @@
       </c>
       <c r="T33" s="33"/>
     </row>
-    <row r="34" spans="2:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="22">
         <v>27</v>
       </c>
@@ -7185,7 +7194,7 @@
       </c>
       <c r="T34" s="33"/>
     </row>
-    <row r="35" spans="2:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22">
         <v>27</v>
       </c>
@@ -7242,7 +7251,7 @@
       </c>
       <c r="T35" s="33"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>30</v>
       </c>
@@ -7299,7 +7308,7 @@
       </c>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15">
         <v>30</v>
       </c>
@@ -7356,7 +7365,7 @@
       </c>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>30</v>
       </c>
@@ -7413,7 +7422,7 @@
       </c>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>30</v>
       </c>
@@ -7470,7 +7479,7 @@
       </c>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>32</v>
       </c>
@@ -7527,7 +7536,7 @@
       </c>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>32</v>
       </c>
@@ -7584,7 +7593,7 @@
       </c>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>32</v>
       </c>
@@ -7641,7 +7650,7 @@
       </c>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>32</v>
       </c>
@@ -7698,7 +7707,7 @@
       </c>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>31</v>
       </c>
@@ -7755,7 +7764,7 @@
       </c>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>31</v>
       </c>
@@ -7812,7 +7821,7 @@
       </c>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
         <v>31</v>
       </c>
@@ -7869,7 +7878,7 @@
       </c>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
         <v>31</v>
       </c>
@@ -7926,7 +7935,7 @@
       </c>
       <c r="T47" s="30"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
         <v>33</v>
       </c>
@@ -7981,9 +7990,14 @@
       <c r="S48" s="2">
         <v>0</v>
       </c>
-      <c r="T48" s="30"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T48" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <v>35</v>
       </c>
@@ -8040,7 +8054,7 @@
       </c>
       <c r="T49" s="30"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
         <v>35</v>
       </c>
@@ -8097,7 +8111,7 @@
       </c>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
         <v>33</v>
       </c>
@@ -8152,9 +8166,14 @@
       <c r="S51" s="2">
         <v>0</v>
       </c>
-      <c r="T51" s="30"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T51" s="30">
+        <v>10</v>
+      </c>
+      <c r="U51" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
         <v>35</v>
       </c>
@@ -8211,7 +8230,7 @@
       </c>
       <c r="T52" s="30"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
         <v>36</v>
       </c>
@@ -8268,7 +8287,7 @@
       </c>
       <c r="T53" s="30"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
         <v>36</v>
       </c>
@@ -8325,7 +8344,7 @@
       </c>
       <c r="T54" s="30"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
         <v>36</v>
       </c>
@@ -8382,7 +8401,7 @@
       </c>
       <c r="T55" s="30"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
         <v>36</v>
       </c>
@@ -8439,7 +8458,7 @@
       </c>
       <c r="T56" s="30"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
         <v>34</v>
       </c>
@@ -8496,7 +8515,7 @@
       </c>
       <c r="T57" s="30"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
         <v>34</v>
       </c>
@@ -8553,7 +8572,7 @@
       </c>
       <c r="T58" s="30"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
         <v>34</v>
       </c>
@@ -8610,7 +8629,7 @@
       </c>
       <c r="T59" s="30"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
         <v>34</v>
       </c>
